--- a/data/trans_dic/P25_12-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_12-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos de ansiedad</t>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,38</t>
+          <t>2,43; 9,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,08</t>
+          <t>3,42; 11,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,17</t>
+          <t>2,14; 8,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,85; 18,32</t>
+          <t>5,94; 16,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 23,88</t>
+          <t>8,32; 17,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,0</t>
+          <t>15,72; 26,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,94</t>
+          <t>10,85; 20,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 16,32</t>
+          <t>14,41; 26,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,75</t>
+          <t>6,43; 12,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 18,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 13,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 20,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 11,45</t>
+          <t>4,38; 14,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,22</t>
+          <t>3,27; 11,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,92</t>
+          <t>5,42; 14,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 21,38</t>
+          <t>5,71; 15,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 21,3</t>
+          <t>10,58; 22,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 19,69</t>
+          <t>11,11; 22,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 15,02</t>
+          <t>6,98; 16,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 14,25</t>
+          <t>12,17; 24,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,51</t>
+          <t>8,34; 15,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 15,59</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,1; 13,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 17,93</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,0</t>
+          <t>0,0; 23,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 16,63</t>
+          <t>0,0; 18,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 16,9</t>
+          <t>3,02; 32,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,58</t>
+          <t>4,11; 35,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 29,35</t>
+          <t>2,47; 23,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 26,62</t>
+          <t>9,7; 35,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,41</t>
+          <t>10,11; 36,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,91</t>
+          <t>8,14; 33,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,67; 17,85</t>
+          <t>2,56; 15,16</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,62; 21,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 28,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 28,61</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>14,45%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,87</t>
+          <t>4,11; 9,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,47</t>
+          <t>4,11; 9,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,24</t>
+          <t>4,97; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,09</t>
+          <t>7,41; 15,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,08</t>
+          <t>10,1; 16,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,92</t>
+          <t>15,72; 22,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,73</t>
+          <t>11,32; 18,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 14,25</t>
+          <t>15,01; 22,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,21</t>
+          <t>8,0; 12,8</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 15,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 13,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23633</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25360</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18299</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53571</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61945</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>88186</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>63177</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>111839</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85578</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>113545</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>81476</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>165410</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10431; 41897</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12516; 43664</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8159; 33598</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30486; 84790</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42333; 88212</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>65911; 112685</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>44216; 83614</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>81236; 150133</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60370; 114869</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86020; 141973</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59970; 107770</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>125635; 216434</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28687</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20532</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>28512</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>39697</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>66368</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54274</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37865</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77767</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>95055</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>74806</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66377</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>117464</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15747; 50438</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10317; 37798</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17490; 48081</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23536; 64306</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44990; 94529</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37406; 76863</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23388; 56770</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52311; 107035</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>65424; 123497</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>54187; 101685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46718; 91975</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85505; 150997</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6087</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3180</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11160</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19255</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8299</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16514</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18151</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20232</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14386</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19694</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>29311</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39488</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23725</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14809</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2584; 28164</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4902; 42012</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2381; 22322</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7908; 29052</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8344; 29791</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9064; 37003</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5075; 30053</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9057; 35233</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15061; 48634</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20857; 66007</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58407</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>49072</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>57971</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>112524</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>136613</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>158973</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>119193</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>209839</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>195019</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>208045</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>177164</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>322362</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36625; 84233</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31265; 74657</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>39220; 80832</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77396; 158503</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>104072; 171564</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>131617; 190678</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>93377; 150276</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>165783; 253151</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153746; 246076</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>173848; 255063</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>141452; 214089</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>264782; 382955</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
